--- a/DOM_Banner/output/dept_banner/Steven Goldschmid_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Steven Goldschmid_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,203 +360,109 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Frank L. Meyskens, Christine E. McLaren, Daniel Pelot, Sharon Fujikawa-Brooks, Philip M. Carpenter, Ernest T. Hawk, Gary J. Kelloff, Michael J. Lawson, Jayashri Kidao, John McCracken, Gregory Albers, Dennis J. Ahnen, D. Kim Turgeon, Steven Goldschmid, Peter Lance, Curt H. Hagedorn, Daniel L. Gillen, Eugene W. Gerner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362614986</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Perspective from Difluoromethylornithine Plus Sulindac for the Prevention of Sporadic Colorectal Adenomas: A Randomized Placebo-Controlled, Double-Blind Trial</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5060872059", "https://openalex.org/A5058120847", "https://openalex.org/A5052553743", "https://openalex.org/A5049565197", "https://openalex.org/A5082537748", "https://openalex.org/A5015008352", "https://openalex.org/A5048308941", "https://openalex.org/A5035030573", "https://openalex.org/A5036611202", "https://openalex.org/A5035732436", "https://openalex.org/A5074899903", "https://openalex.org/A5078332522", "https://openalex.org/A5034313444", "https://openalex.org/A5059695645", 
-"https://openalex.org/A5015831837", "https://openalex.org/A5026851914", "https://openalex.org/A5066963436", "https://openalex.org/A5090466629"), au_display_name = c("Frank L. Meyskens", "Christine E. McLaren", "Daniel Pelot", "Sharon Fujikawa-Brooks", "Philip M. Carpenter", "Ernest T. Hawk", "Gary J. Kelloff", "Michael J. Lawson", "Jayashri Kidao", "John McCracken", "Gregory Albers", "Dennis J. Ahnen", "D. Kim Turgeon", "Steven Goldschmid", "Peter Lance", "Curt H. Hagedorn", "Daniel L. Gillen", "Eugene W. Gerner"
-), au_orcid = c("https://orcid.org/0000-0002-8827-4334", NA, NA, NA, NA, "https://orcid.org/0000-0002-9062-7338", "https://orcid.org/0000-0002-5656-4900", "https://orcid.org/0000-0001-8443-943X", NA, "https://orcid.org/0000-0001-6945-4762", "https://orcid.org/0000-0002-5972-7891", "https://orcid.org/0000-0003-1783-1129", NA, NA, "https://orcid.org/0000-0003-2944-1881", NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, 
-NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Perspective from Difluoromethylornithine Plus Sulindac for the Prevention of Sporadic Colorectal Adenomas: A Randomized Placebo-Controlled, Double-Blind Trial</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -566,173 +472,79 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.22523412</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1940-6207.22523412</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22523412</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4362614986</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4362614986", doi = "https://doi.org/10.1158/1940-6207.22523412")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22523412</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2008033210", "https://openalex.org/W2944307022", "https://openalex.org/W2285107216", "https://openalex.org/W2740480687", "https://openalex.org/W2402440863", "https://openalex.org/W4248970910", "https://openalex.org/W3084327256", "https://openalex.org/W4362624991", "https://openalex.org/W4362614986", "https://openalex.org/W4206262706")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Frank L. Meyskens, Christine E. McLaren, Daniel Pelot, Sharon Fujikawa-Brooks, Philip M. Carpenter, Ernest T. Hawk, Gary J. Kelloff, Michael J. Lawson, Jayashri Kidao, John McCracken, Gregory Albers, Dennis J. Ahnen, D. Kim Turgeon, Steven Goldschmid, Peter Lance, Curt H. Hagedorn, Daniel L. Gillen, Eugene W. Gerner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362624991</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Perspective from Difluoromethylornithine Plus Sulindac for the Prevention of Sporadic Colorectal Adenomas: A Randomized Placebo-Controlled, Double-Blind Trial</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5060872059", "https://openalex.org/A5058120847", "https://openalex.org/A5052553743", "https://openalex.org/A5049565197", "https://openalex.org/A5082537748", "https://openalex.org/A5015008352", "https://openalex.org/A5048308941", "https://openalex.org/A5023286049", "https://openalex.org/A5036611202", "https://openalex.org/A5035732436", "https://openalex.org/A5074899903", "https://openalex.org/A5078332522", "https://openalex.org/A5034313444", "https://openalex.org/A5059695645", 
-"https://openalex.org/A5015831837", "https://openalex.org/A5026851914", "https://openalex.org/A5066963436", "https://openalex.org/A5090466629"), au_display_name = c("Frank L. Meyskens", "Christine E. McLaren", "Daniel Pelot", "Sharon Fujikawa-Brooks", "Philip M. Carpenter", "Ernest T. Hawk", "Gary J. Kelloff", "Michael J. Lawson", "Jayashri Kidao", "John McCracken", "Gregory Albers", "Dennis J. Ahnen", "D. Kim Turgeon", "Steven Goldschmid", "Peter Lance", "Curt H. Hagedorn", "Daniel L. Gillen", "Eugene W. Gerner"
-), au_orcid = c("https://orcid.org/0000-0002-8827-4334", NA, NA, NA, NA, "https://orcid.org/0000-0002-9062-7338", "https://orcid.org/0000-0002-5656-4900", "https://orcid.org/0000-0002-0175-3683", NA, "https://orcid.org/0000-0001-6945-4762", "https://orcid.org/0000-0002-5972-7891", "https://orcid.org/0000-0003-1783-1129", NA, NA, "https://orcid.org/0000-0003-2944-1881", NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, 
-NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Perspective from Difluoromethylornithine Plus Sulindac for the Prevention of Sporadic Colorectal Adenomas: A Randomized Placebo-Controlled, Double-Blind Trial</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -742,142 +554,52 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1940-6207.22523412.v1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1940-6207.22523412.v1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22523412.v1</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4362624991</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4362624991", doi = "https://doi.org/10.1158/1940-6207.22523412.v1")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1940-6207.22523412.v1</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2008033210", "https://openalex.org/W2944307022", "https://openalex.org/W4362614986", "https://openalex.org/W2285107216", "https://openalex.org/W2740480687", "https://openalex.org/W2402440863", "https://openalex.org/W3084327256", "https://openalex.org/W4362624991", "https://openalex.org/W4206262706", "https://openalex.org/W4248970910")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Steven Goldschmid_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Steven Goldschmid_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362614986</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Perspective from Difluoromethylornithine Plus Sulindac for the Prevention of Sporadic Colorectal Adenomas: A Randomized Placebo-Controlled, Double-Blind Trial</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6207.22523412</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6207.22523412</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362624991</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Perspective from Difluoromethylornithine Plus Sulindac for the Prevention of Sporadic Colorectal Adenomas: A Randomized Placebo-Controlled, Double-Blind Trial</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6207.22523412.v1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1940-6207.22523412.v1</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
